--- a/Project_Management/Sprint 6/Scrum Board.xlsx
+++ b/Project_Management/Sprint 6/Scrum Board.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gusta\Documents\GitHub\SE2324\Project_Management\Sprint 6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52A8AACC-11D3-4DE2-845C-68D7C3CD17C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EAD904D-1260-4229-8EBD-B84C4C72B01F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1302,7 +1302,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1400,7 +1400,9 @@
       <c r="D6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="4"/>
+      <c r="E6" s="9" t="s">
+        <v>14</v>
+      </c>
       <c r="F6" s="4"/>
       <c r="G6" s="3"/>
     </row>
@@ -1410,10 +1412,10 @@
         <v>8</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="10"/>
+      <c r="E7" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
     </row>
@@ -1423,9 +1425,6 @@
         <v>11</v>
       </c>
       <c r="C8" s="4"/>
-      <c r="D8" s="9" t="s">
-        <v>14</v>
-      </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>

--- a/Project_Management/Sprint 6/Scrum Board.xlsx
+++ b/Project_Management/Sprint 6/Scrum Board.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gusta\Documents\GitHub\SE2324\Project_Management\Sprint 6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EAD904D-1260-4229-8EBD-B84C4C72B01F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{011E5E3A-9806-43A4-AB59-DE26C9A3755A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1302,7 +1302,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1365,8 +1365,8 @@
       <c r="C4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>10</v>
+      <c r="D4" s="9" t="s">
+        <v>9</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>6</v>
@@ -1382,9 +1382,7 @@
       <c r="C5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>13</v>
-      </c>
+      <c r="D5" s="10"/>
       <c r="E5" s="7" t="s">
         <v>7</v>
       </c>
@@ -1397,9 +1395,6 @@
         <v>10</v>
       </c>
       <c r="C6" s="3"/>
-      <c r="D6" s="9" t="s">
-        <v>9</v>
-      </c>
       <c r="E6" s="9" t="s">
         <v>14</v>
       </c>
@@ -1425,7 +1420,9 @@
         <v>11</v>
       </c>
       <c r="C8" s="4"/>
-      <c r="E8" s="4"/>
+      <c r="E8" s="7" t="s">
+        <v>10</v>
+      </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
     </row>
@@ -1436,7 +1433,9 @@
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="10"/>
-      <c r="E9" s="4"/>
+      <c r="E9" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
     </row>

--- a/Project_Management/Sprint 6/Scrum Board.xlsx
+++ b/Project_Management/Sprint 6/Scrum Board.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gusta\Documents\GitHub\SE2324\Project_Management\Sprint 6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{011E5E3A-9806-43A4-AB59-DE26C9A3755A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6997812-FD91-4DAD-9554-ED51059A6CD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -130,7 +130,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -153,11 +153,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -169,6 +182,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1302,7 +1316,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1368,10 +1382,12 @@
       <c r="D4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="4"/>
       <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1383,10 +1399,12 @@
         <v>16</v>
       </c>
       <c r="D5" s="10"/>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="4"/>
       <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1395,8 +1413,8 @@
         <v>10</v>
       </c>
       <c r="C6" s="3"/>
-      <c r="E6" s="9" t="s">
-        <v>14</v>
+      <c r="E6" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="3"/>
@@ -1408,8 +1426,8 @@
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="10"/>
-      <c r="E7" s="9" t="s">
-        <v>12</v>
+      <c r="E7" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
@@ -1420,9 +1438,7 @@
         <v>11</v>
       </c>
       <c r="C8" s="4"/>
-      <c r="E8" s="7" t="s">
-        <v>10</v>
-      </c>
+      <c r="E8" s="10"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
     </row>
@@ -1432,10 +1448,8 @@
         <v>9</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="7" t="s">
-        <v>13</v>
-      </c>
+      <c r="D9" s="11"/>
+      <c r="E9" s="10"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
     </row>

--- a/Project_Management/Sprint 6/Scrum Board.xlsx
+++ b/Project_Management/Sprint 6/Scrum Board.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gusta\Documents\GitHub\SE2324\Project_Management\Sprint 6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6997812-FD91-4DAD-9554-ED51059A6CD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA0A0D12-B973-43F3-AA83-90F699CCF4DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -1315,8 +1315,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1379,16 +1379,13 @@
       <c r="C4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>9</v>
-      </c>
       <c r="E4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="10"/>
+      <c r="G4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
@@ -1398,14 +1395,12 @@
       <c r="C5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="7" t="s">
+      <c r="D5" s="11"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
@@ -1413,11 +1408,11 @@
         <v>10</v>
       </c>
       <c r="C6" s="3"/>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="10"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
@@ -1425,12 +1420,12 @@
         <v>8</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="7" t="s">
-        <v>13</v>
-      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="10"/>
       <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
+      <c r="G7" s="9" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="8" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
@@ -1439,8 +1434,10 @@
       </c>
       <c r="C8" s="4"/>
       <c r="E8" s="10"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="9" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="9" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
@@ -1451,7 +1448,9 @@
       <c r="D9" s="11"/>
       <c r="E9" s="10"/>
       <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
+      <c r="G9" s="7" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="10" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
@@ -1459,17 +1458,17 @@
         <v>12</v>
       </c>
       <c r="C10" s="4"/>
-      <c r="D10" s="10"/>
+      <c r="D10" s="11"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
+      <c r="G10" s="10"/>
     </row>
     <row r="11" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
+      <c r="D11" s="11"/>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
